--- a/2) Декабрь/912/912 Разработка моб приложений_декабрь.xlsx
+++ b/2) Декабрь/912/912 Разработка моб приложений_декабрь.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilyao\OneDrive\Рабочий стол\Журналы\2) Декабрь\912\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94B7E4-D2D9-40A2-8768-2A8290EBD5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B9424-5A67-42DD-AE9C-F08E49DC68D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="4185" windowWidth="23040" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17685" windowHeight="13545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="48">
   <si>
     <t>ФИО</t>
   </si>
@@ -135,15 +135,6 @@
     <t>Сам 1</t>
   </si>
   <si>
-    <t>Практика 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Практика 6 </t>
-  </si>
-  <si>
-    <t>Практика 6</t>
-  </si>
-  <si>
     <t>Мудл</t>
   </si>
   <si>
@@ -151,6 +142,33 @@
   </si>
   <si>
     <t>Сам 2</t>
+  </si>
+  <si>
+    <t>Лекция 1.3</t>
+  </si>
+  <si>
+    <t>Лекция 1.4</t>
+  </si>
+  <si>
+    <t>Лекция 2.1</t>
+  </si>
+  <si>
+    <t>Лекция 2.2</t>
+  </si>
+  <si>
+    <t>Лекция 2.3</t>
+  </si>
+  <si>
+    <t>Практика 2.5</t>
+  </si>
+  <si>
+    <t>Практика 2.6</t>
+  </si>
+  <si>
+    <t>Практика 2.7</t>
+  </si>
+  <si>
+    <t>Практика 2.8</t>
   </si>
 </sst>
 </file>
@@ -559,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +602,11 @@
     <col min="17" max="17" width="13.7109375" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -1733,43 +1755,43 @@
         <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -1777,16 +1799,73 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" t="s">
+        <v>43</v>
+      </c>
+      <c r="W31" t="s">
+        <v>47</v>
+      </c>
+      <c r="X31" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
@@ -1794,7 +1873,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
